--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -30,13 +30,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ig/lmdi/StructureDefinition/Legemiddelrekvirering</t>
+    <t>http://hl7.no/fhir/ig/mal/StructureDefinition/Legemiddelrekvirering</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,13 +63,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Folkehelseinstituttet (FHI)</t>
+    <t>HL7 Norge</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Folkehelseinstituttet (FHI) (https://www.fhi.no)</t>
+    <t>HL7 Norge (https://www.hl7.no)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1153,7 +1153,7 @@
     <t>lmdi-address</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-address</t>
+    <t>http://hl7.no/fhir/ig/mal/StructureDefinition/lmdi-address</t>
   </si>
   <si>
     <t>LmdiAdresse</t>
@@ -1343,7 +1343,7 @@
     <t>municipalitycode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/lmdi/StructureDefinition/no-basis-municipalitycode}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/mal/StructureDefinition/no-basis-municipalitycode}
 </t>
   </si>
   <si>
@@ -1427,7 +1427,7 @@
     <t>lmdi-condition-diagnose</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-condition-diagnose</t>
+    <t>http://hl7.no/fhir/ig/mal/StructureDefinition/lmdi-condition-diagnose</t>
   </si>
   <si>
     <t>LmdiDiagnose</t>
@@ -2124,7 +2124,7 @@
     <t>lmdi-episodeofcare-institusjonsopphold</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-episodeofcare-institusjonsopphold</t>
+    <t>http://hl7.no/fhir/ig/mal/StructureDefinition/lmdi-episodeofcare-institusjonsopphold</t>
   </si>
   <si>
     <t>LmdiEpisodeOfCareInstitusjonsopphold</t>
@@ -2398,7 +2398,7 @@
     <t>lmdi-legemiddel</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-legemiddel</t>
+    <t>http://hl7.no/fhir/ig/mal/StructureDefinition/lmdi-legemiddel</t>
   </si>
   <si>
     <t>Legemiddel</t>
@@ -2893,7 +2893,7 @@
     <t>lmdi-legemiddeladministrasjon</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-legemiddeladministrasjon</t>
+    <t>http://hl7.no/fhir/ig/mal/StructureDefinition/lmdi-legemiddeladministrasjon</t>
   </si>
   <si>
     <t>Legemiddeladministrasjon</t>
@@ -2985,7 +2985,7 @@
     <t xml:space="preserve">Status administrering. Skal vanligvis settes til 'Gjennomført' (completed), men 'Feilregistrert' (entered-in-error) MÅ benyttes hvis registreringen inneholder en alvorlig feil og skal slettes. </t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ig/lmdi/ValueSet/lmdi-medicationadministration-status</t>
+    <t>http://hl7.no/fhir/ig/mal/ValueSet/lmdi-medicationadministration-status</t>
   </si>
   <si>
     <t>MedicationAdministration.statusReason</t>
@@ -3417,7 +3417,7 @@
     <t>lmdi-observation-tmp</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-observation-tmp</t>
+    <t>http://hl7.no/fhir/ig/mal/StructureDefinition/lmdi-observation-tmp</t>
   </si>
   <si>
     <t>LmdiObservation</t>
@@ -4251,7 +4251,7 @@
     <t>lmdi-organization</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-organization</t>
+    <t>http://hl7.no/fhir/ig/mal/StructureDefinition/lmdi-organization</t>
   </si>
   <si>
     <t>LmdiOrganization</t>
@@ -4803,7 +4803,7 @@
     <t>lmdi-patient</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-patient</t>
+    <t>http://hl7.no/fhir/ig/mal/StructureDefinition/lmdi-patient</t>
   </si>
   <si>
     <t>LmdiPatient</t>
@@ -5463,7 +5463,7 @@
     <t>lmdi-practitioner</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-practitioner</t>
+    <t>http://hl7.no/fhir/ig/mal/StructureDefinition/lmdi-practitioner</t>
   </si>
   <si>
     <t>LmdiPractitioner</t>
@@ -5793,7 +5793,7 @@
     <t>lmdi-practitionerrole</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-practitionerrole</t>
+    <t>http://hl7.no/fhir/ig/mal/StructureDefinition/lmdi-practitionerrole</t>
   </si>
   <si>
     <t>LmdiPractitionerRole</t>
@@ -6134,7 +6134,7 @@
     <t>no-basis-municipalitycode</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ig/lmdi/StructureDefinition/no-basis-municipalitycode</t>
+    <t>http://hl7.no/fhir/ig/mal/StructureDefinition/no-basis-municipalitycode</t>
   </si>
   <si>
     <t>NoBasisMunicipalitycode</t>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="350">
   <si>
     <t>Property</t>
   </si>
@@ -508,6 +508,167 @@
     <t>Need to be able to track the patient by multiple names. Examples are your official name and a partner name.</t>
   </si>
   <si>
+    <t>Patient.name.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Patient.name.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Patient.name.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this name.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The use of a human name.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
+  </si>
+  <si>
+    <t>HumanName.use</t>
+  </si>
+  <si>
+    <t>Patient.name.text</t>
+  </si>
+  <si>
+    <t>Text representation of the full name</t>
+  </si>
+  <si>
+    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>A renderable, unencoded form.</t>
+  </si>
+  <si>
+    <t>HumanName.text</t>
+  </si>
+  <si>
+    <t>Patient.name.family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surname
+</t>
+  </si>
+  <si>
+    <t>Family name (often called 'Surname')</t>
+  </si>
+  <si>
+    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
+  </si>
+  <si>
+    <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
+  </si>
+  <si>
+    <t>HumanName.family</t>
+  </si>
+  <si>
+    <t>Patient.name.given</t>
+  </si>
+  <si>
+    <t>first name
+middle name</t>
+  </si>
+  <si>
+    <t>Given names (not always 'first'). Includes middle names</t>
+  </si>
+  <si>
+    <t>Given name.</t>
+  </si>
+  <si>
+    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
+  </si>
+  <si>
+    <t>HumanName.given</t>
+  </si>
+  <si>
+    <t>Patient.name.prefix</t>
+  </si>
+  <si>
+    <t>Parts that come before the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
+  </si>
+  <si>
+    <t>HumanName.prefix</t>
+  </si>
+  <si>
+    <t>Patient.name.suffix</t>
+  </si>
+  <si>
+    <t>Parts that come after the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
+  </si>
+  <si>
+    <t>HumanName.suffix</t>
+  </si>
+  <si>
+    <t>Patient.name.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when name was/is in use</t>
+  </si>
+  <si>
+    <t>Indicates the period of time when this name was valid for the named person.</t>
+  </si>
+  <si>
+    <t>Allows names to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>HumanName.period</t>
+  </si>
+  <si>
     <t>Patient.telecom</t>
   </si>
   <si>
@@ -540,9 +701,6 @@
   </si>
   <si>
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
   <si>
     <t>The gender of a person used for administrative purposes.</t>
@@ -700,26 +858,7 @@
     <t>Patient.contact.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Patient.contact.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Patient.contact.modifierExtension</t>
@@ -823,10 +962,6 @@
   </si>
   <si>
     <t>Patient.contact.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
   </si>
   <si>
     <t>The period during which this contact person or organization is valid to be contacted relating to this patient</t>
@@ -1290,7 +1425,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK46"/>
+  <dimension ref="A1:AK55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1328,7 +1463,7 @@
     <col min="27" max="27" width="51.921875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2732,7 +2867,7 @@
         <v>76</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>78</v>
@@ -2741,7 +2876,7 @@
         <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>158</v>
@@ -2752,12 +2887,8 @@
       <c r="N14" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="O14" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="P14" t="s" s="2">
-        <v>162</v>
-      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
         <v>78</v>
       </c>
@@ -2805,19 +2936,19 @@
         <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -2825,21 +2956,21 @@
         <v>3</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>78</v>
@@ -2848,23 +2979,21 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="P15" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
         <v>78</v>
       </c>
@@ -2888,43 +3017,43 @@
         <v>78</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="AB15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16">
@@ -2932,10 +3061,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2952,25 +3081,25 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>85</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="P16" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="P16" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="Q16" t="s" s="2">
         <v>78</v>
@@ -2995,13 +3124,13 @@
         <v>78</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="AB16" t="s" s="2">
         <v>78</v>
@@ -3019,7 +3148,7 @@
         <v>78</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>76</v>
@@ -3059,25 +3188,25 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>85</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="O17" t="s" s="2">
+      <c r="P17" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="P17" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="Q17" t="s" s="2">
         <v>78</v>
@@ -3126,7 +3255,7 @@
         <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>76</v>
@@ -3153,17 +3282,17 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>78</v>
@@ -3172,7 +3301,7 @@
         <v>85</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>185</v>
@@ -3183,9 +3312,7 @@
       <c r="O18" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="P18" t="s" s="2">
-        <v>188</v>
-      </c>
+      <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
         <v>78</v>
       </c>
@@ -3233,13 +3360,13 @@
         <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>78</v>
@@ -3260,14 +3387,14 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>78</v>
@@ -3276,10 +3403,10 @@
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>191</v>
@@ -3287,10 +3414,10 @@
       <c r="N19" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="O19" s="2"/>
-      <c r="P19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>193</v>
       </c>
+      <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
         <v>78</v>
       </c>
@@ -3314,37 +3441,37 @@
         <v>78</v>
       </c>
       <c r="Y19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG19" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Z19" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>189</v>
-      </c>
       <c r="AH19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>78</v>
@@ -3358,10 +3485,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3372,7 +3499,7 @@
         <v>76</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>78</v>
@@ -3381,23 +3508,19 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="P20" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
         <v>78</v>
       </c>
@@ -3445,13 +3568,13 @@
         <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>78</v>
@@ -3465,10 +3588,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3488,23 +3611,19 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="P21" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
         <v>78</v>
       </c>
@@ -3552,7 +3671,7 @@
         <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>76</v>
@@ -3572,10 +3691,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3586,7 +3705,7 @@
         <v>76</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>78</v>
@@ -3595,22 +3714,20 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="Q22" t="s" s="2">
         <v>78</v>
@@ -3659,19 +3776,19 @@
         <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>215</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23">
@@ -3679,10 +3796,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3693,7 +3810,7 @@
         <v>76</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>78</v>
@@ -3702,19 +3819,23 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="Q23" t="s" s="2">
         <v>78</v>
       </c>
@@ -3762,19 +3883,19 @@
         <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24">
@@ -3782,21 +3903,21 @@
         <v>3</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>78</v>
@@ -3805,21 +3926,23 @@
         <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>129</v>
+        <v>216</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="P24" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="P24" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="Q24" t="s" s="2">
         <v>78</v>
       </c>
@@ -3843,13 +3966,13 @@
         <v>78</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="AB24" t="s" s="2">
         <v>78</v>
@@ -3867,19 +3990,19 @@
         <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>133</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
@@ -3887,45 +4010,45 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>85</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>128</v>
+        <v>223</v>
       </c>
       <c r="M25" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="P25" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="P25" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="Q25" t="s" s="2">
         <v>78</v>
@@ -3974,19 +4097,19 @@
         <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>133</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26">
@@ -3994,10 +4117,10 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4008,19 +4131,19 @@
         <v>76</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>230</v>
@@ -4028,9 +4151,11 @@
       <c r="N26" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="O26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="P26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q26" t="s" s="2">
         <v>78</v>
@@ -4055,13 +4180,13 @@
         <v>78</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
         <v>78</v>
@@ -4079,13 +4204,13 @@
         <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>78</v>
@@ -4099,10 +4224,10 @@
         <v>3</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4113,7 +4238,7 @@
         <v>76</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>78</v>
@@ -4122,10 +4247,10 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>152</v>
+        <v>235</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>236</v>
@@ -4133,9 +4258,11 @@
       <c r="N27" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="O27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="P27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q27" t="s" s="2">
         <v>78</v>
@@ -4184,13 +4311,13 @@
         <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>78</v>
@@ -4204,10 +4331,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4218,7 +4345,7 @@
         <v>76</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>78</v>
@@ -4230,19 +4357,17 @@
         <v>78</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>158</v>
+        <v>241</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>162</v>
+        <v>244</v>
       </c>
       <c r="Q28" t="s" s="2">
         <v>78</v>
@@ -4267,13 +4392,13 @@
         <v>78</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>78</v>
+        <v>246</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>78</v>
+        <v>247</v>
       </c>
       <c r="AB28" t="s" s="2">
         <v>78</v>
@@ -4291,13 +4416,13 @@
         <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>78</v>
@@ -4311,10 +4436,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4337,17 +4462,19 @@
         <v>78</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>184</v>
+        <v>249</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="P29" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="Q29" t="s" s="2">
         <v>78</v>
@@ -4396,7 +4523,7 @@
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>76</v>
@@ -4416,10 +4543,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4430,7 +4557,7 @@
         <v>76</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>78</v>
@@ -4442,17 +4569,19 @@
         <v>78</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>104</v>
+        <v>255</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>164</v>
+        <v>256</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="P30" t="s" s="2">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="Q30" t="s" s="2">
         <v>78</v>
@@ -4477,13 +4606,13 @@
         <v>78</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="AB30" t="s" s="2">
         <v>78</v>
@@ -4501,13 +4630,13 @@
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>78</v>
@@ -4521,10 +4650,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4535,7 +4664,7 @@
         <v>76</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>78</v>
@@ -4547,17 +4676,19 @@
         <v>78</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="P31" t="s" s="2">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="Q31" t="s" s="2">
         <v>78</v>
@@ -4606,19 +4737,19 @@
         <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>255</v>
+        <v>78</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>96</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32">
@@ -4626,10 +4757,10 @@
         <v>3</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4652,13 +4783,13 @@
         <v>78</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>257</v>
+        <v>158</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>258</v>
+        <v>159</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>259</v>
+        <v>160</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -4709,7 +4840,7 @@
         <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>256</v>
+        <v>161</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>76</v>
@@ -4721,7 +4852,7 @@
         <v>78</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
@@ -4729,14 +4860,14 @@
         <v>3</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" t="s" s="2">
@@ -4755,20 +4886,18 @@
         <v>78</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>261</v>
+        <v>129</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>262</v>
+        <v>163</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="P33" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
         <v>78</v>
       </c>
@@ -4816,7 +4945,7 @@
         <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>260</v>
+        <v>167</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
@@ -4828,7 +4957,7 @@
         <v>78</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34">
@@ -4836,42 +4965,46 @@
         <v>3</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>218</v>
+        <v>271</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="P34" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="Q34" t="s" s="2">
         <v>78</v>
       </c>
@@ -4919,19 +5052,19 @@
         <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35">
@@ -4939,14 +5072,14 @@
         <v>3</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" t="s" s="2">
@@ -4965,18 +5098,18 @@
         <v>78</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>128</v>
+        <v>241</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>129</v>
+        <v>275</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="P35" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="Q35" t="s" s="2">
         <v>78</v>
       </c>
@@ -5000,13 +5133,13 @@
         <v>78</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>78</v>
+        <v>278</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="AB35" t="s" s="2">
         <v>78</v>
@@ -5024,7 +5157,7 @@
         <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>223</v>
+        <v>274</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>76</v>
@@ -5036,7 +5169,7 @@
         <v>78</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>133</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36">
@@ -5044,45 +5177,43 @@
         <v>3</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>226</v>
+        <v>281</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>137</v>
+        <v>283</v>
       </c>
       <c r="Q36" t="s" s="2">
         <v>78</v>
@@ -5131,19 +5262,19 @@
         <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>228</v>
+        <v>280</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>133</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37">
@@ -5151,10 +5282,10 @@
         <v>3</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5162,10 +5293,10 @@
       </c>
       <c r="F37" s="2"/>
       <c r="G37" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>78</v>
@@ -5177,19 +5308,19 @@
         <v>78</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>272</v>
+        <v>214</v>
       </c>
       <c r="Q37" t="s" s="2">
         <v>78</v>
@@ -5214,13 +5345,13 @@
         <v>78</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
         <v>78</v>
@@ -5238,13 +5369,13 @@
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>78</v>
@@ -5258,10 +5389,10 @@
         <v>3</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5284,19 +5415,17 @@
         <v>78</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>145</v>
+        <v>235</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="Q38" t="s" s="2">
         <v>78</v>
@@ -5345,7 +5474,7 @@
         <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>76</v>
@@ -5365,21 +5494,21 @@
         <v>3</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>78</v>
@@ -5391,18 +5520,18 @@
         <v>78</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>280</v>
+        <v>104</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>281</v>
+        <v>216</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="P39" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="Q39" t="s" s="2">
         <v>78</v>
       </c>
@@ -5426,13 +5555,13 @@
         <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="AB39" t="s" s="2">
         <v>78</v>
@@ -5450,13 +5579,13 @@
         <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>78</v>
@@ -5470,10 +5599,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5493,22 +5622,20 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="Q40" t="s" s="2">
         <v>78</v>
@@ -5557,7 +5684,7 @@
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>76</v>
@@ -5566,7 +5693,7 @@
         <v>84</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>78</v>
+        <v>300</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>96</v>
@@ -5577,10 +5704,10 @@
         <v>3</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5591,32 +5718,28 @@
         <v>76</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="P41" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
         <v>78</v>
       </c>
@@ -5664,13 +5787,13 @@
         <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>78</v>
@@ -5684,10 +5807,10 @@
         <v>3</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5698,7 +5821,7 @@
         <v>76</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>78</v>
@@ -5710,16 +5833,20 @@
         <v>78</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>218</v>
+        <v>305</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="P42" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="Q42" t="s" s="2">
         <v>78</v>
       </c>
@@ -5767,19 +5894,19 @@
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43">
@@ -5787,21 +5914,21 @@
         <v>3</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>78</v>
@@ -5813,17 +5940,15 @@
         <v>78</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
         <v>78</v>
@@ -5872,19 +5997,19 @@
         <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44">
@@ -5892,14 +6017,14 @@
         <v>3</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>225</v>
+        <v>127</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" t="s" s="2">
@@ -5912,26 +6037,24 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>128</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>226</v>
+        <v>129</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="P44" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
         <v>78</v>
       </c>
@@ -5979,7 +6102,7 @@
         <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>76</v>
@@ -5999,44 +6122,46 @@
         <v>3</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>85</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>298</v>
+        <v>128</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="P45" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="P45" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="Q45" t="s" s="2">
         <v>78</v>
       </c>
@@ -6084,19 +6209,19 @@
         <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46">
@@ -6104,10 +6229,10 @@
         <v>3</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6127,19 +6252,23 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>104</v>
+        <v>241</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="P46" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="Q46" t="s" s="2">
         <v>78</v>
       </c>
@@ -6163,13 +6292,13 @@
         <v>78</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>304</v>
+        <v>109</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>305</v>
+        <v>110</v>
       </c>
       <c r="AB46" t="s" s="2">
         <v>78</v>
@@ -6187,7 +6316,7 @@
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>84</v>
@@ -6199,6 +6328,955 @@
         <v>78</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="P47" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="Q47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R47" s="2"/>
+      <c r="S47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R48" s="2"/>
+      <c r="S48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="P49" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="Q49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R49" s="2"/>
+      <c r="S49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="P50" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Q50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R50" s="2"/>
+      <c r="S50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R51" s="2"/>
+      <c r="S51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R52" s="2"/>
+      <c r="S52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="P53" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="Q53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R53" s="2"/>
+      <c r="S53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R54" s="2"/>
+      <c r="S54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R55" s="2"/>
+      <c r="S55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>96</v>
       </c>
     </row>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5816" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3982" uniqueCount="562">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>ID</t>
   </si>
   <si>
-    <t>mal-patient-test</t>
+    <t>mal-patient</t>
   </si>
   <si>
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ig/mal/StructureDefinition/mal-patient-test</t>
+    <t>http://hl7.no/fhir/ig/mal/StructureDefinition/mal-patient</t>
   </si>
   <si>
     <t>Version</t>
@@ -42,13 +42,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>MalPatientTest</t>
+    <t>MalPatient</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>PasientNoBasisTest</t>
+    <t>Pasient</t>
   </si>
   <si>
     <t>Status</t>
@@ -87,7 +87,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Informasjon om pasienten, med no-basis TEST</t>
+    <t>Informasjon om pasienten, basert på no-basis.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1767,87 +1767,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/link-type|4.0.1</t>
-  </si>
-  <si>
-    <t>mal-patient</t>
-  </si>
-  <si>
-    <t>http://hl7.no/fhir/ig/mal/StructureDefinition/mal-patient</t>
-  </si>
-  <si>
-    <t>MalPatient</t>
-  </si>
-  <si>
-    <t>Pasient</t>
-  </si>
-  <si>
-    <t>2024-11-11</t>
-  </si>
-  <si>
-    <t>Informasjon om pasienten</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SubjectOfCare Client Resident
-</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>An identifier for this patient</t>
-  </si>
-  <si>
-    <t>An identifier for this patient.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HumanName
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">surname
-</t>
-  </si>
-  <si>
-    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
-  </si>
-  <si>
-    <t>first name
-middle name</t>
-  </si>
-  <si>
-    <t>Given names (not always 'first'). Includes middle names</t>
-  </si>
-  <si>
-    <t>Given name.</t>
-  </si>
-  <si>
-    <t>Parts that come before the name</t>
-  </si>
-  <si>
-    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
-  </si>
-  <si>
-    <t>Parts that come after the name</t>
-  </si>
-  <si>
-    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address
-</t>
-  </si>
-  <si>
-    <t>An address for the individual</t>
-  </si>
-  <si>
-    <t>An address for the individual.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization|Practitioner|PractitionerRole)
-</t>
   </si>
 </sst>
 </file>
@@ -1981,7 +1900,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2153,168 +2072,6 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2322,7 +2079,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK172"/>
+  <dimension ref="A1:AK118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2331,7 +2088,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="13.91015625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="53.03125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="40.23828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
@@ -14786,5702 +14543,6 @@
         <v>96</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B119" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C119" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D119" s="2"/>
-      <c r="E119" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="F119" s="2"/>
-      <c r="G119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="O119" s="2"/>
-      <c r="P119" s="2"/>
-      <c r="Q119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R119" s="2"/>
-      <c r="S119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK119" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B120" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="C120" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="D120" s="2"/>
-      <c r="E120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F120" s="2"/>
-      <c r="G120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="P120" s="2"/>
-      <c r="Q120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R120" s="2"/>
-      <c r="S120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B121" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="C121" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="D121" s="2"/>
-      <c r="E121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F121" s="2"/>
-      <c r="G121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O121" s="2"/>
-      <c r="P121" s="2"/>
-      <c r="Q121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R121" s="2"/>
-      <c r="S121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK121" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B122" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="C122" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="D122" s="2"/>
-      <c r="E122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F122" s="2"/>
-      <c r="G122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H122" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J122" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="P122" s="2"/>
-      <c r="Q122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R122" s="2"/>
-      <c r="S122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG122" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK122" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B123" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="C123" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="D123" s="2"/>
-      <c r="E123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F123" s="2"/>
-      <c r="G123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H123" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="P123" s="2"/>
-      <c r="Q123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R123" s="2"/>
-      <c r="S123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y123" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Z123" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AA123" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AB123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG123" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AH123" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI123" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK123" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B124" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="C124" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="D124" s="2"/>
-      <c r="E124" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="F124" s="2"/>
-      <c r="G124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H124" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="P124" s="2"/>
-      <c r="Q124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R124" s="2"/>
-      <c r="S124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG124" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AH124" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI124" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK124" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B125" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="C125" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="D125" s="2"/>
-      <c r="E125" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="F125" s="2"/>
-      <c r="G125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="P125" s="2"/>
-      <c r="Q125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R125" s="2"/>
-      <c r="S125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="C126" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="D126" s="2"/>
-      <c r="E126" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="F126" s="2"/>
-      <c r="G126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="P126" s="2"/>
-      <c r="Q126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R126" s="2"/>
-      <c r="S126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B127" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="C127" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="D127" s="2"/>
-      <c r="E127" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="F127" s="2"/>
-      <c r="G127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J127" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="O127" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="P127" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="Q127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R127" s="2"/>
-      <c r="S127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG127" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AH127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI127" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK127" t="s" s="2">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B128" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="C128" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="D128" s="2"/>
-      <c r="E128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F128" s="2"/>
-      <c r="G128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H128" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I128" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="O128" s="2"/>
-      <c r="P128" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="Q128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R128" s="2"/>
-      <c r="S128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG128" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AH128" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI128" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B129" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="C129" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="D129" s="2"/>
-      <c r="E129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F129" s="2"/>
-      <c r="G129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H129" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J129" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K129" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="P129" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="Q129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R129" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="S129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG129" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AH129" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI129" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK129" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B130" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="C130" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="D130" s="2"/>
-      <c r="E130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F130" s="2"/>
-      <c r="G130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H130" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K130" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="P130" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="Q130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R130" s="2"/>
-      <c r="S130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG130" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AH130" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI130" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK130" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B131" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="C131" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="D131" s="2"/>
-      <c r="E131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F131" s="2"/>
-      <c r="G131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H131" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O131" s="2"/>
-      <c r="P131" s="2"/>
-      <c r="Q131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R131" s="2"/>
-      <c r="S131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG131" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AH131" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI131" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK131" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B132" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="C132" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="D132" s="2"/>
-      <c r="E132" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="F132" s="2"/>
-      <c r="G132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H132" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O132" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="P132" s="2"/>
-      <c r="Q132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R132" s="2"/>
-      <c r="S132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC132" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AD132" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AE132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF132" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AG132" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AH132" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI132" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK132" t="s" s="2">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B133" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="C133" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="D133" s="2"/>
-      <c r="E133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F133" s="2"/>
-      <c r="G133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J133" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K133" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="O133" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="P133" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="Q133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R133" s="2"/>
-      <c r="S133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y133" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="Z133" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AA133" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG133" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AH133" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI133" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK133" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B134" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="C134" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="D134" s="2"/>
-      <c r="E134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F134" s="2"/>
-      <c r="G134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K134" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="P134" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="Q134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R134" s="2"/>
-      <c r="S134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG134" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AH134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI134" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B135" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="C135" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="D135" s="2"/>
-      <c r="E135" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="F135" s="2"/>
-      <c r="G135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H135" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I135" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K135" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="P135" s="2"/>
-      <c r="Q135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R135" s="2"/>
-      <c r="S135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG135" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AH135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI135" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK135" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B136" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="C136" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="D136" s="2"/>
-      <c r="E136" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="F136" s="2"/>
-      <c r="G136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H136" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K136" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="P136" s="2"/>
-      <c r="Q136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R136" s="2"/>
-      <c r="S136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG136" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AH136" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI136" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK136" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B137" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="C137" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="D137" s="2"/>
-      <c r="E137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F137" s="2"/>
-      <c r="G137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H137" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K137" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L137" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M137" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N137" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="O137" s="2"/>
-      <c r="P137" s="2"/>
-      <c r="Q137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R137" s="2"/>
-      <c r="S137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG137" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AH137" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI137" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK137" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B138" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="C138" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="D138" s="2"/>
-      <c r="E138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F138" s="2"/>
-      <c r="G138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H138" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K138" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L138" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="O138" s="2"/>
-      <c r="P138" s="2"/>
-      <c r="Q138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R138" s="2"/>
-      <c r="S138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG138" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AH138" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI138" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK138" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B139" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="C139" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="D139" s="2"/>
-      <c r="E139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F139" s="2"/>
-      <c r="G139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H139" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K139" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O139" s="2"/>
-      <c r="P139" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="Q139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R139" s="2"/>
-      <c r="S139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG139" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AH139" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI139" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK139" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B140" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="C140" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="D140" s="2"/>
-      <c r="E140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F140" s="2"/>
-      <c r="G140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H140" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K140" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O140" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="P140" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="Q140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R140" s="2"/>
-      <c r="S140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG140" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AH140" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI140" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK140" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B141" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="C141" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="D141" s="2"/>
-      <c r="E141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F141" s="2"/>
-      <c r="G141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H141" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K141" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="P141" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="Q141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R141" s="2"/>
-      <c r="S141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y141" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="Z141" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AA141" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AB141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG141" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AH141" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI141" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK141" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B142" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="C142" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="D142" s="2"/>
-      <c r="E142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F142" s="2"/>
-      <c r="G142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H142" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K142" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L142" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="O142" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="P142" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="Q142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R142" s="2"/>
-      <c r="S142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG142" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AH142" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI142" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK142" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B143" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="C143" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="D143" s="2"/>
-      <c r="E143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F143" s="2"/>
-      <c r="G143" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H143" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J143" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K143" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O143" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="P143" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="Q143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R143" s="2"/>
-      <c r="S143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG143" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AH143" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI143" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK143" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B144" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="C144" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="D144" s="2"/>
-      <c r="E144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F144" s="2"/>
-      <c r="G144" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K144" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L144" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="M144" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="O144" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="P144" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="Q144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R144" s="2"/>
-      <c r="S144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG144" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AH144" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI144" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK144" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B145" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="C145" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="D145" s="2"/>
-      <c r="E145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F145" s="2"/>
-      <c r="G145" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H145" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L145" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O145" s="2"/>
-      <c r="P145" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="Q145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R145" s="2"/>
-      <c r="S145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y145" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="Z145" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AA145" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AB145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG145" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AH145" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI145" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK145" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B146" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="C146" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="D146" s="2"/>
-      <c r="E146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F146" s="2"/>
-      <c r="G146" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H146" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L146" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M146" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="O146" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="P146" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="Q146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R146" s="2"/>
-      <c r="S146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG146" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AH146" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI146" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK146" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B147" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="C147" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="D147" s="2"/>
-      <c r="E147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F147" s="2"/>
-      <c r="G147" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H147" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L147" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M147" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="O147" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="P147" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="Q147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R147" s="2"/>
-      <c r="S147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG147" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AH147" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI147" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK147" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B148" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="C148" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="D148" s="2"/>
-      <c r="E148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F148" s="2"/>
-      <c r="G148" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H148" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L148" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="O148" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="P148" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="Q148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R148" s="2"/>
-      <c r="S148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG148" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AH148" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI148" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK148" t="s" s="2">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B149" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C149" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="D149" s="2"/>
-      <c r="E149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F149" s="2"/>
-      <c r="G149" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O149" s="2"/>
-      <c r="P149" s="2"/>
-      <c r="Q149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R149" s="2"/>
-      <c r="S149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG149" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AH149" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI149" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK149" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B150" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="C150" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="D150" s="2"/>
-      <c r="E150" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="F150" s="2"/>
-      <c r="G150" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H150" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O150" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="P150" s="2"/>
-      <c r="Q150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R150" s="2"/>
-      <c r="S150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG150" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AH150" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI150" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK150" t="s" s="2">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B151" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="C151" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="D151" s="2"/>
-      <c r="E151" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="F151" s="2"/>
-      <c r="G151" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H151" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I151" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J151" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K151" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L151" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="O151" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="P151" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="Q151" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R151" s="2"/>
-      <c r="S151" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T151" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U151" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V151" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W151" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X151" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y151" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z151" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA151" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB151" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC151" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD151" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE151" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF151" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG151" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AH151" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI151" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ151" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK151" t="s" s="2">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B152" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="C152" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="D152" s="2"/>
-      <c r="E152" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F152" s="2"/>
-      <c r="G152" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H152" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I152" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J152" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K152" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L152" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M152" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="O152" s="2"/>
-      <c r="P152" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="Q152" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R152" s="2"/>
-      <c r="S152" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T152" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U152" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V152" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W152" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X152" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y152" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="Z152" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AA152" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AB152" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC152" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD152" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE152" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF152" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG152" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AH152" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI152" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ152" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK152" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B153" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="C153" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="D153" s="2"/>
-      <c r="E153" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F153" s="2"/>
-      <c r="G153" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H153" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I153" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J153" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K153" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L153" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="M153" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="O153" s="2"/>
-      <c r="P153" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="Q153" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R153" s="2"/>
-      <c r="S153" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T153" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U153" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V153" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W153" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X153" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y153" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z153" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA153" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB153" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC153" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD153" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE153" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF153" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG153" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AH153" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI153" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ153" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK153" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B154" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="C154" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="D154" s="2"/>
-      <c r="E154" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F154" s="2"/>
-      <c r="G154" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H154" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I154" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J154" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K154" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M154" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N154" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="O154" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="P154" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="Q154" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R154" s="2"/>
-      <c r="S154" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T154" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U154" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V154" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W154" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X154" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y154" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z154" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA154" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB154" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC154" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD154" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE154" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF154" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG154" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AH154" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI154" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ154" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK154" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B155" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="C155" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="D155" s="2"/>
-      <c r="E155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F155" s="2"/>
-      <c r="G155" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H155" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L155" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="O155" s="2"/>
-      <c r="P155" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="Q155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R155" s="2"/>
-      <c r="S155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG155" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="AH155" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI155" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK155" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B156" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="C156" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="D156" s="2"/>
-      <c r="E156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F156" s="2"/>
-      <c r="G156" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H156" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L156" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="O156" s="2"/>
-      <c r="P156" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="Q156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R156" s="2"/>
-      <c r="S156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y156" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="Z156" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AA156" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AB156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG156" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AH156" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI156" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ156" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK156" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B157" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="C157" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="D157" s="2"/>
-      <c r="E157" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F157" s="2"/>
-      <c r="G157" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H157" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I157" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J157" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K157" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L157" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M157" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="O157" s="2"/>
-      <c r="P157" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="Q157" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R157" s="2"/>
-      <c r="S157" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T157" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U157" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V157" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W157" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X157" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y157" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z157" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA157" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB157" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC157" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD157" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE157" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF157" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG157" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AH157" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI157" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ157" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AK157" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B158" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="C158" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="D158" s="2"/>
-      <c r="E158" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F158" s="2"/>
-      <c r="G158" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H158" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I158" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J158" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K158" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L158" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="O158" s="2"/>
-      <c r="P158" s="2"/>
-      <c r="Q158" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R158" s="2"/>
-      <c r="S158" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T158" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U158" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V158" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W158" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X158" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y158" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z158" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA158" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB158" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC158" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD158" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE158" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF158" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG158" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AH158" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI158" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ158" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK158" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B159" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="C159" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="D159" s="2"/>
-      <c r="E159" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F159" s="2"/>
-      <c r="G159" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H159" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I159" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J159" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K159" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L159" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="O159" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="P159" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="Q159" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R159" s="2"/>
-      <c r="S159" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T159" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U159" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V159" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W159" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X159" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y159" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z159" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA159" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB159" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC159" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD159" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE159" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF159" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG159" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AH159" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI159" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ159" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK159" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B160" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="C160" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="D160" s="2"/>
-      <c r="E160" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F160" s="2"/>
-      <c r="G160" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H160" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I160" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J160" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K160" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L160" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M160" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O160" s="2"/>
-      <c r="P160" s="2"/>
-      <c r="Q160" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R160" s="2"/>
-      <c r="S160" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T160" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U160" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V160" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W160" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X160" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y160" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z160" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA160" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB160" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC160" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD160" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE160" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF160" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG160" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AH160" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI160" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ160" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK160" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B161" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="C161" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="D161" s="2"/>
-      <c r="E161" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="F161" s="2"/>
-      <c r="G161" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H161" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I161" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J161" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K161" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L161" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O161" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="P161" s="2"/>
-      <c r="Q161" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R161" s="2"/>
-      <c r="S161" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T161" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U161" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V161" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W161" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X161" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y161" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z161" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA161" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB161" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC161" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD161" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE161" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF161" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG161" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AH161" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI161" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ161" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK161" t="s" s="2">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B162" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="C162" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="D162" s="2"/>
-      <c r="E162" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="F162" s="2"/>
-      <c r="G162" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H162" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I162" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J162" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K162" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L162" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="O162" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="P162" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="Q162" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R162" s="2"/>
-      <c r="S162" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T162" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U162" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V162" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W162" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X162" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y162" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z162" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA162" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB162" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC162" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD162" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE162" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF162" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG162" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AH162" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI162" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ162" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK162" t="s" s="2">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B163" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="C163" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="D163" s="2"/>
-      <c r="E163" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F163" s="2"/>
-      <c r="G163" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H163" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I163" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J163" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K163" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L163" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M163" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="N163" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="O163" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="P163" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="Q163" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R163" s="2"/>
-      <c r="S163" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T163" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U163" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V163" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W163" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X163" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y163" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Z163" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AA163" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AB163" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC163" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD163" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE163" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF163" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG163" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AH163" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI163" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ163" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK163" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B164" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="C164" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="D164" s="2"/>
-      <c r="E164" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F164" s="2"/>
-      <c r="G164" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H164" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I164" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J164" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K164" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L164" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M164" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="O164" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="P164" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="Q164" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R164" s="2"/>
-      <c r="S164" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T164" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U164" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V164" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W164" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X164" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y164" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z164" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA164" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB164" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC164" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD164" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE164" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF164" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG164" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="AH164" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI164" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ164" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK164" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B165" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="C165" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="D165" s="2"/>
-      <c r="E165" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="F165" s="2"/>
-      <c r="G165" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H165" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I165" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J165" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K165" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L165" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="M165" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="N165" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="O165" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="P165" s="2"/>
-      <c r="Q165" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R165" s="2"/>
-      <c r="S165" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T165" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U165" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V165" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W165" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X165" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y165" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z165" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA165" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB165" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC165" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD165" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE165" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF165" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG165" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AH165" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI165" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ165" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK165" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B166" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="C166" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="D166" s="2"/>
-      <c r="E166" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F166" s="2"/>
-      <c r="G166" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H166" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I166" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J166" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K166" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L166" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M166" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N166" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="O166" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="P166" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="Q166" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R166" s="2"/>
-      <c r="S166" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T166" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U166" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V166" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W166" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X166" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y166" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z166" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA166" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB166" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC166" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD166" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE166" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF166" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG166" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="AH166" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI166" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ166" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK166" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B167" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="C167" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="D167" s="2"/>
-      <c r="E167" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F167" s="2"/>
-      <c r="G167" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H167" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I167" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J167" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K167" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L167" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="N167" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="O167" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="P167" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="Q167" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R167" s="2"/>
-      <c r="S167" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T167" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U167" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V167" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W167" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X167" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y167" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z167" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA167" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB167" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC167" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD167" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE167" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF167" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG167" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="AH167" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI167" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ167" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK167" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B168" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="C168" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="D168" s="2"/>
-      <c r="E168" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F168" s="2"/>
-      <c r="G168" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H168" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I168" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J168" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K168" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L168" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N168" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O168" s="2"/>
-      <c r="P168" s="2"/>
-      <c r="Q168" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R168" s="2"/>
-      <c r="S168" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T168" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U168" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V168" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W168" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X168" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y168" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z168" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA168" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB168" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC168" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD168" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE168" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF168" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG168" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AH168" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI168" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ168" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK168" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B169" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="C169" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="D169" s="2"/>
-      <c r="E169" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="F169" s="2"/>
-      <c r="G169" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H169" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I169" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J169" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K169" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L169" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M169" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N169" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O169" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="P169" s="2"/>
-      <c r="Q169" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R169" s="2"/>
-      <c r="S169" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T169" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U169" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V169" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W169" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X169" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y169" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z169" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA169" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB169" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC169" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD169" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE169" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF169" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG169" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AH169" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI169" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ169" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK169" t="s" s="2">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B170" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="C170" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="D170" s="2"/>
-      <c r="E170" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="F170" s="2"/>
-      <c r="G170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H170" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I170" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J170" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K170" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L170" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M170" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N170" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="O170" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="P170" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="Q170" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R170" s="2"/>
-      <c r="S170" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T170" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U170" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V170" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W170" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X170" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y170" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z170" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA170" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB170" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC170" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD170" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE170" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF170" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG170" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AH170" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI170" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ170" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK170" t="s" s="2">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B171" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="C171" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="D171" s="2"/>
-      <c r="E171" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F171" s="2"/>
-      <c r="G171" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H171" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I171" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J171" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K171" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L171" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="M171" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="O171" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="P171" s="2"/>
-      <c r="Q171" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R171" s="2"/>
-      <c r="S171" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T171" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U171" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V171" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W171" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X171" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y171" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z171" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA171" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB171" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC171" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD171" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE171" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF171" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG171" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="AH171" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI171" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ171" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK171" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B172" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="C172" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="D172" s="2"/>
-      <c r="E172" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F172" s="2"/>
-      <c r="G172" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H172" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I172" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J172" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K172" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L172" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M172" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="N172" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="O172" s="2"/>
-      <c r="P172" s="2"/>
-      <c r="Q172" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R172" s="2"/>
-      <c r="S172" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T172" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U172" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V172" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W172" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X172" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y172" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="Z172" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="AA172" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="AB172" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC172" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD172" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE172" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF172" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG172" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="AH172" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI172" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ172" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK172" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/currentbuild/all-profiles.xlsx
+++ b/currentbuild/all-profiles.xlsx
@@ -24,13 +24,13 @@
     <t>ID</t>
   </si>
   <si>
-    <t>mal-observation-ldl</t>
+    <t>mal-observation-blodprove</t>
   </si>
   <si>
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ig/mal/StructureDefinition/mal-observation-ldl</t>
+    <t>http://hl7.no/fhir/ig/mal/StructureDefinition/mal-observation-blodprove</t>
   </si>
   <si>
     <t>Version</t>
@@ -42,13 +42,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>MalObservationLdl</t>
+    <t>MalObservationBlood</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>P-LDL-kolesterol</t>
+    <t>Blodprøve</t>
   </si>
   <si>
     <t>Status</t>
@@ -87,7 +87,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Måleverdier for P-LDL-kolesterol</t>
+    <t>Profil for vanlige blodprøver</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -587,7 +587,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
+    <t xml:space="preserve">Reference(Patient)
 </t>
   </si>
   <si>
@@ -2952,7 +2952,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.8125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="25.83984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="53.03125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="44.67578125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="17.96484375" customWidth="true" bestFit="true" hidden="true"/>
